--- a/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/AbilityInfo_ValueInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/AbilityInfo_ValueInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Effects\Resources\Documents\Ability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01439F4E-6316-45EB-979B-1367ED74D0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD33A81-9CC8-42BF-BE22-AABA3C663CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10750" yWindow="6460" windowWidth="24900" windowHeight="11860" activeTab="1" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="-32505" yWindow="2355" windowWidth="28785" windowHeight="15345" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,11 +117,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,19 +438,19 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,91 +469,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -567,20 +488,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0EF5-FF8C-48D0-85D0-A5ABB4EF764C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,91 +520,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -699,19 +540,19 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,91 +571,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -830,19 +591,19 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,91 +622,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -961,19 +642,19 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,91 +673,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -1092,19 +693,19 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,91 +724,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
@@ -1222,20 +743,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C901BB9-BBE8-4E57-82B3-8A4F764FD54A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,91 +775,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>1</v>
       </c>
